--- a/data/trans_bre/P21B_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P21B_R-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.719409297893627</v>
+        <v>-0.4804813562556216</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.9512198828573876</v>
+        <v>-0.9753158634516997</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.328513543154584</v>
+        <v>-2.108979935532943</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.96450444658854</v>
+        <v>-2.127803563247573</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.0073529831125228</v>
+        <v>-0.00482487557222455</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.009522790979658476</v>
+        <v>-0.009769905272875913</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.02359508293036176</v>
+        <v>-0.02113291017583786</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.01987373312577572</v>
+        <v>-0.02164514303063446</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.336954195637445</v>
+        <v>6.571574601986099</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.551932109737764</v>
+        <v>3.602623240209458</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.416378843453646</v>
+        <v>3.422626747253703</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.672661824989038</v>
+        <v>3.464289216868671</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.06899129185400805</v>
+        <v>0.07212585497872633</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03694613680737303</v>
+        <v>0.03772465367672392</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03577453047593779</v>
+        <v>0.03557667597554288</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.03874217850048183</v>
+        <v>0.03682311039379253</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.967468648399838</v>
+        <v>-2.868817322279328</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.903456044897234</v>
+        <v>-2.787994580514067</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.291147973027516</v>
+        <v>-1.957643653684328</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.366529130818034</v>
+        <v>-4.99867844435203</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.02999196480122981</v>
+        <v>-0.02887485736362015</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.02977359990729316</v>
+        <v>-0.02817215254470693</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.02412655348916503</v>
+        <v>-0.02078083919494448</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.05613601269492921</v>
+        <v>-0.05283300573846236</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.232796752875119</v>
+        <v>2.423962547453733</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.854566612282295</v>
+        <v>1.759726001419553</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.916769279871033</v>
+        <v>5.64698613858454</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.535374013344944</v>
+        <v>2.222502849556638</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02330924310570964</v>
+        <v>0.02536691411393795</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01887176568249422</v>
+        <v>0.01818949399011758</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.065411242510668</v>
+        <v>0.06319197868306682</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.02738659016010903</v>
+        <v>0.0249317498606301</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-7.267435421900547</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.424908884721123</v>
+        <v>3.42490888472109</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04358850648221907</v>
@@ -849,7 +849,7 @@
         <v>-0.08490871094226637</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.04218338178488706</v>
+        <v>0.04218338178488665</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.96061229614927</v>
+        <v>-4.497384135564872</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-14.16960080477065</v>
+        <v>-13.78659844353441</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-17.30140911376468</v>
+        <v>-17.97167960247921</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.336499403028941</v>
+        <v>-3.958852536053473</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.04194292586238273</v>
+        <v>-0.04499602669513406</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1477811942709928</v>
+        <v>-0.1416863018297035</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.192247771008882</v>
+        <v>-0.198971185314813</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.050764664674996</v>
+        <v>-0.0447523036769862</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.60056707370507</v>
+        <v>13.98777408058178</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.928949720081378</v>
+        <v>2.826361463962082</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.781674214478646</v>
+        <v>4.596614270295101</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.961619421802</v>
+        <v>11.72769669668848</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1651347329051802</v>
+        <v>0.1728744644487097</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0324367325633864</v>
+        <v>0.03149903652914943</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06502743455852505</v>
+        <v>0.05526704876827439</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1601462332632093</v>
+        <v>0.160842709471118</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-0.2819177356620184</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3611732540721668</v>
+        <v>0.3611732540722112</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01381109550743543</v>
@@ -949,7 +949,7 @@
         <v>-0.003035650810279308</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.00395516438019621</v>
+        <v>0.003955164380196699</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.7593085929147324</v>
+        <v>-0.6818117709196619</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.074010007600285</v>
+        <v>-2.1183298774098</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.597481037416959</v>
+        <v>-3.162298142717995</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.371999760412911</v>
+        <v>-2.198375071248064</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.00797790037507507</v>
+        <v>-0.007029674422532379</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.02110876143142753</v>
+        <v>-0.02157554871693404</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.03810534006162562</v>
+        <v>-0.03364919953065998</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.02549433172397617</v>
+        <v>-0.02357966993686581</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.920316785941713</v>
+        <v>3.923660182614095</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.191142115784749</v>
+        <v>1.296543605805172</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.734523329737916</v>
+        <v>3.066313551161464</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.672964504026253</v>
+        <v>3.419951184834061</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.04177278339647986</v>
+        <v>0.04175580180060562</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01233870533363429</v>
+        <v>0.01334774720820154</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03002773251288866</v>
+        <v>0.03366285709603973</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.04099390541676123</v>
+        <v>0.03857084095699086</v>
       </c>
     </row>
     <row r="16">
